--- a/zero-doc/src/main/resources/plugin/doc/oob/cab/d.doc.xlsx
+++ b/zero-doc/src/main/resources/plugin/doc/oob/cab/d.doc.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E363B2BB-18CE-5F46-BE01-55B5C4165361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47720" yWindow="-1600" windowWidth="43060" windowHeight="22560"/>
+    <workbookView xWindow="-47720" yWindow="-1600" windowWidth="43060" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DATA-RES" state="visible" r:id="rId4"/>
+    <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -587,84 +601,111 @@
   </si>
   <si>
     <t>res.doc.system.by.sigma</t>
+  </si>
+  <si>
+    <t>res.doc.system.token</t>
+  </si>
+  <si>
+    <t>1aca8287-46dd-4227-9e12-51bf59eefdfa</t>
+  </si>
+  <si>
+    <t>0b114083-4760-430b-86fc-a045b90f77e4</t>
+  </si>
+  <si>
+    <t>act.doc.system.token</t>
+  </si>
+  <si>
+    <t>/api/doc/token</t>
+  </si>
+  <si>
+    <t>令牌</t>
+  </si>
+  <si>
+    <t>申请令牌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="16"/>
-      <name val="等线 (Body)"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color rgb="FF0070C0"/>
-      <family val="3"/>
-      <sz val="16"/>
-      <name val="等线 (Body)"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color rgb="FF0070C0"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="16"/>
-      <name val="等线"/>
     </font>
     <font>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
-      <sz val="16"/>
-      <name val="等线"/>
     </font>
     <font>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="16"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -676,7 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,12 +857,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,12 +874,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +905,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1190,15 +1231,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K64"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
@@ -1211,818 +1252,839 @@
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="56.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="31" t="str">
-        <f>A48</f>
+      <c r="B28" s="27" t="str">
+        <f t="shared" ref="B28:B43" si="0">A49</f>
         <v>b21b0a98-502f-455d-aca3-64535e4e9237</v>
       </c>
-      <c r="C28" s="31" t="str">
+      <c r="C28" s="27" t="str">
         <f>A15</f>
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="21">
         <v>1</v>
       </c>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="31" t="str">
-        <f>A49</f>
+      <c r="B29" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>37a383f4-6525-423b-b344-371121fb198e</v>
       </c>
-      <c r="C29" s="31" t="str">
+      <c r="C29" s="27" t="str">
         <f>A16</f>
         <v>a45314db-67cf-45ee-bfdb-54ca975be283</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="21">
         <v>4</v>
       </c>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="31" t="str">
-        <f>A50</f>
+      <c r="B30" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>68d6e38f-8948-4c76-87d7-d94b29dc38da</v>
       </c>
-      <c r="C30" s="31" t="str">
+      <c r="C30" s="27" t="str">
         <f>A17</f>
         <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="21">
         <v>8</v>
       </c>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="31" t="str">
-        <f>A51</f>
+      <c r="B31" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>da0df4bf-767b-47bb-8825-d4808b24ad2c</v>
       </c>
-      <c r="C31" s="31" t="str">
+      <c r="C31" s="27" t="str">
         <f>A18</f>
         <v>9566832d-0c61-4b5a-b2ea-fc0d8611a34c</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="21">
         <v>12</v>
       </c>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="31" t="str">
-        <f>A52</f>
+      <c r="B32" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>c8c547b7-713d-438d-a0d8-baeaaeaf6564</v>
       </c>
-      <c r="C32" s="31" t="str">
+      <c r="C32" s="27" t="str">
         <f>A15</f>
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="21">
         <v>1</v>
       </c>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="31" t="str">
-        <f>A53</f>
+      <c r="B33" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>367e186d-13bc-44d2-8495-b293da069464</v>
       </c>
-      <c r="C33" s="31" t="str">
+      <c r="C33" s="27" t="str">
         <f>A17</f>
         <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="21">
         <v>8</v>
       </c>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="31" t="str">
-        <f>A54</f>
+      <c r="B34" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>16c5d7a7-5c94-4979-9f0d-c453a2e335c1</v>
       </c>
-      <c r="C34" s="31" t="str">
+      <c r="C34" s="27" t="str">
         <f>A18</f>
         <v>9566832d-0c61-4b5a-b2ea-fc0d8611a34c</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="21">
         <v>12</v>
       </c>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="31" t="str">
-        <f>A55</f>
+      <c r="B35" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>bf22f392-9aad-451c-b72b-13a911a5bfb5</v>
       </c>
-      <c r="C35" s="31" t="str">
+      <c r="C35" s="27" t="str">
         <f>A19</f>
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="21">
         <v>3</v>
       </c>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="31" t="str">
-        <f>A56</f>
+      <c r="B36" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>c9db1eb1-8c01-4d53-834f-3dfc66ec7111</v>
       </c>
-      <c r="C36" s="31" t="str">
+      <c r="C36" s="27" t="str">
         <f>A19</f>
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="21">
         <v>3</v>
       </c>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="31" t="str">
-        <f>A57</f>
+      <c r="B37" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>d584d767-f44d-4da0-bf75-3bc582a4e617</v>
       </c>
-      <c r="C37" s="31" t="str">
+      <c r="C37" s="27" t="str">
         <f>A19</f>
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="21">
         <v>11</v>
       </c>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="31" t="str">
-        <f>A58</f>
+      <c r="B38" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>c936e6d2-c09a-4978-ad10-d9e627fba928</v>
       </c>
-      <c r="C38" s="31" t="str">
+      <c r="C38" s="27" t="str">
         <f>A20</f>
         <v>c2e7157b-85e9-4ce3-9a3d-70d4288357b7</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="21">
         <v>5</v>
       </c>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="31" t="str">
-        <f>A59</f>
+      <c r="B39" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>f32c076e-b9ad-4223-840a-0486a4c6a36e</v>
       </c>
-      <c r="C39" s="31" t="str">
+      <c r="C39" s="27" t="str">
         <f>A20</f>
         <v>c2e7157b-85e9-4ce3-9a3d-70d4288357b7</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="21">
         <v>3</v>
       </c>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="31" t="str">
-        <f>A60</f>
+      <c r="B40" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>830b2257-c1fa-41a6-bb8a-f583ac80697e</v>
       </c>
-      <c r="C40" s="31" t="str">
+      <c r="C40" s="27" t="str">
         <f>A15</f>
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="21">
         <v>1</v>
       </c>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="31" t="str">
-        <f>A61</f>
+      <c r="B41" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>73b5909d-4e2f-489e-b218-080f0f124e06</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="27" t="str">
         <f>A15</f>
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="21">
         <v>1</v>
       </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="31" t="str">
-        <f>A62</f>
+      <c r="B42" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>628dd180-5670-40e3-a889-1ae94372fc23</v>
       </c>
-      <c r="C42" s="31" t="str">
+      <c r="C42" s="27" t="str">
         <f>A15</f>
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="21">
         <v>1</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>1aca8287-46dd-4227-9e12-51bf59eefdfa</v>
+      </c>
+      <c r="C43" s="27" t="str">
+        <f>A17</f>
+        <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="21">
+        <v>1</v>
+      </c>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2031,526 +2093,554 @@
       <c r="G44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B47" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C47" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D47" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E47" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G47" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H47" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I47" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J47" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K47" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G48" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H48" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I48" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J48" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K48" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B49" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C49" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D49" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E49" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F49" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G49" s="21">
         <v>1</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="27" t="b">
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K49" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B50" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D50" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F50" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G50" s="21">
         <v>4</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B51" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F51" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G51" s="21">
         <v>8</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B52" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C52" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D52" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E52" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F52" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G52" s="21">
         <v>12</v>
       </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B53" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D53" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E53" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F53" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G53" s="21">
         <v>1</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B54" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D54" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F54" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G54" s="21">
         <v>8</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B55" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D55" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E55" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F55" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G55" s="21">
         <v>12</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B56" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C56" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D56" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E56" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F56" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G56" s="21">
         <v>3</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B57" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D57" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E57" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F57" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G57" s="21">
         <v>3</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B58" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C58" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D58" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E58" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F58" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G58" s="21">
         <v>11</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B59" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D59" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E59" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F59" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G59" s="21">
         <v>5</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B60" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C60" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D60" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E60" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F60" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G60" s="21">
         <v>3</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B61" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D61" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E61" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F61" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G61" s="21">
         <v>1</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B62" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C62" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D62" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E62" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F62" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G62" s="21">
         <v>1</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B63" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D63" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E63" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F63" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G63" s="21">
         <v>1</v>
       </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="K64" s="2"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G64" s="21">
+        <v>1</v>
+      </c>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="K65" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zero-doc/src/main/resources/plugin/doc/oob/cab/d.doc.xlsx
+++ b/zero-doc/src/main/resources/plugin/doc/oob/cab/d.doc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E363B2BB-18CE-5F46-BE01-55B5C4165361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C290BA-C74D-2247-A9A0-20BE0716AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47720" yWindow="-1600" windowWidth="43060" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-76420" yWindow="-4840" windowWidth="43060" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>文档管理</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>d80113b4-dba9-45c9-951d-735eb78fbe25</t>
   </si>
   <si>
@@ -622,6 +619,9 @@
   </si>
   <si>
     <t>申请令牌</t>
+  </si>
+  <si>
+    <t>办公协同管理</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
@@ -1256,7 +1256,7 @@
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="4" customFormat="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1305,114 +1305,114 @@
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>6</v>
       </c>
@@ -1420,140 +1420,140 @@
         <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="21" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="21" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -1562,67 +1562,67 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="21" customHeight="1">
       <c r="A26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="18" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="B28" s="27" t="str">
         <f t="shared" ref="B28:B43" si="0">A49</f>
@@ -1633,25 +1633,25 @@
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="21" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1662,25 +1662,25 @@
         <v>a45314db-67cf-45ee-bfdb-54ca975be283</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="H29" s="21">
         <v>4</v>
       </c>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="21" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1691,25 +1691,25 @@
         <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="H30" s="21">
         <v>8</v>
       </c>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="21" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1720,25 +1720,25 @@
         <v>9566832d-0c61-4b5a-b2ea-fc0d8611a34c</v>
       </c>
       <c r="D31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="H31" s="21">
         <v>12</v>
       </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="21" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1749,25 +1749,25 @@
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="H32" s="21">
         <v>1</v>
       </c>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1778,25 +1778,25 @@
         <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="H33" s="21">
         <v>8</v>
       </c>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1807,25 +1807,25 @@
         <v>9566832d-0c61-4b5a-b2ea-fc0d8611a34c</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="H34" s="21">
         <v>12</v>
       </c>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="21" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1836,25 +1836,25 @@
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="H35" s="21">
         <v>3</v>
       </c>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="21" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1865,25 +1865,25 @@
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="H36" s="21">
         <v>3</v>
       </c>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="21" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1894,25 +1894,25 @@
         <v>ce54982a-07da-4599-b072-b9b6484f0b95</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="H37" s="21">
         <v>11</v>
       </c>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="21" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1923,25 +1923,25 @@
         <v>c2e7157b-85e9-4ce3-9a3d-70d4288357b7</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H38" s="21">
         <v>5</v>
       </c>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="21" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1952,25 +1952,25 @@
         <v>c2e7157b-85e9-4ce3-9a3d-70d4288357b7</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="H39" s="21">
         <v>3</v>
       </c>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="21" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1981,25 +1981,25 @@
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
       <c r="D40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="H40" s="21">
         <v>1</v>
       </c>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="21" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2010,25 +2010,25 @@
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
       <c r="D41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="H41" s="21">
         <v>1</v>
       </c>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="21" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2039,25 +2039,25 @@
         <v>664c1d93-b4e5-48ed-b548-0f4b74298b4b</v>
       </c>
       <c r="D42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="G42" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H42" s="21">
         <v>1</v>
       </c>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="21" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2068,23 +2068,23 @@
         <v>66d3958f-8edf-4759-a92e-a78be4c14e5d</v>
       </c>
       <c r="D43" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="H43" s="21">
         <v>1</v>
       </c>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="21" customHeight="1">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2093,7 +2093,7 @@
       <c r="G44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="21" customHeight="1">
       <c r="A45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2102,15 +2102,15 @@
       <c r="G45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="21" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
@@ -2121,42 +2121,42 @@
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="21" customHeight="1">
       <c r="A47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="C47" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="D47" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="17" t="s">
+      <c r="G47" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="H47" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="I47" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="J47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="K47" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:11" ht="21" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>6</v>
       </c>
@@ -2164,51 +2164,51 @@
         <v>8</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="J48" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="K48" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="18" t="s">
+    </row>
+    <row r="49" spans="1:11" ht="21" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="E49" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="G49" s="21">
         <v>1</v>
@@ -2219,27 +2219,27 @@
         <v>1</v>
       </c>
       <c r="K49" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="21" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="21">
         <v>4</v>
@@ -2249,24 +2249,24 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="21" customHeight="1">
       <c r="A51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="E51" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="21">
         <v>8</v>
@@ -2276,24 +2276,24 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="21" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="E52" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="21">
         <v>12</v>
@@ -2303,24 +2303,24 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="21" customHeight="1">
       <c r="A53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="E53" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" s="21">
         <v>1</v>
@@ -2330,24 +2330,24 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="21" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="E54" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" s="21">
         <v>8</v>
@@ -2357,24 +2357,24 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="21" customHeight="1">
       <c r="A55" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="E55" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="21">
         <v>12</v>
@@ -2384,24 +2384,24 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="21" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="E56" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" s="21">
         <v>3</v>
@@ -2411,24 +2411,24 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="21" customHeight="1">
       <c r="A57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="E57" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="21">
         <v>3</v>
@@ -2438,24 +2438,24 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="21" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C58" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="E58" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="21">
         <v>11</v>
@@ -2465,24 +2465,24 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="21" customHeight="1">
       <c r="A59" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>179</v>
-      </c>
       <c r="E59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="21">
         <v>5</v>
@@ -2492,24 +2492,24 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="21" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="E60" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" s="21">
         <v>3</v>
@@ -2519,24 +2519,24 @@
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="21" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="E61" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" s="21">
         <v>1</v>
@@ -2546,24 +2546,24 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="21" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="E62" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="21">
         <v>1</v>
@@ -2573,24 +2573,24 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="21" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="E63" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G63" s="21">
         <v>1</v>
@@ -2600,24 +2600,24 @@
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="21" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G64" s="21">
         <v>1</v>
@@ -2627,7 +2627,7 @@
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="21" customHeight="1">
       <c r="A65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
